--- a/data/crossing_design.xlsx
+++ b/data/crossing_design.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7CDF7B-4AFB-4845-B150-F2DD5C99C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F545F0-6FDD-42FE-8A71-897F3935C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="6450" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{BF8FC09C-D6AC-4585-B9E0-78BFC494D26E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{BF8FC09C-D6AC-4585-B9E0-78BFC494D26E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Sheet6!$A$1:$R$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Sheet7!$A$1:$M$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="127">
   <si>
     <t>accession</t>
   </si>
@@ -348,13 +353,88 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>W-S -  MIXED</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>flowers</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>female_group</t>
+  </si>
+  <si>
+    <t>male_group</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>F_date</t>
+  </si>
+  <si>
+    <t>F_number</t>
+  </si>
+  <si>
+    <t>Cross_SN</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>M_date</t>
+  </si>
+  <si>
+    <t>Cross_sn</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>C_date</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>planting data B2</t>
+  </si>
+  <si>
+    <t>heading date</t>
+  </si>
+  <si>
+    <t>W-2024-338</t>
+  </si>
+  <si>
+    <t>W-2024-186</t>
+  </si>
+  <si>
+    <t>W-2024-161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +448,51 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -432,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -444,7 +562,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I4" sqref="I1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1179,9 @@
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
       <c r="I6">
         <v>43.62</v>
       </c>
@@ -1236,7 +1365,9 @@
       <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
       <c r="I10">
         <v>13.65</v>
       </c>
@@ -1282,7 +1413,9 @@
       <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" t="s">
+        <v>126</v>
+      </c>
       <c r="I11">
         <v>13.26</v>
       </c>
@@ -1906,8 +2039,8 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +2063,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2502,6 +2635,5160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079BC05C-127D-4C4A-9298-36547C1DEBC3}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50.56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45.81</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40.26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43.62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>33.25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14.41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13.65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.69907200000000003</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.76795599999999897</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.86567899999999898</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.80262500000000003</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.93934700000000004</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.80542899999999895</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.86986699999999895</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.33881</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.79100499999999896</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="B2:B23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD1B3A-3168-4F47-8BC0-5C1BB77A34A0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AG88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="18">
+        <v>45705</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H33" si="0">_xlfn.CONCAT(B2," X ",C2)</f>
+        <v>1 X 6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9</v>
+      </c>
+      <c r="O2" s="18">
+        <v>45714</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f t="shared" ref="R2:R33" si="1">_xlfn.CONCAT(L2," X ",M2)</f>
+        <v>6 X 1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>50.56</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>45696</v>
+      </c>
+      <c r="AD2">
+        <f>AC2-AB2</f>
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45705</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1 X 10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="18">
+        <v>45700</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>9 X 1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>45.81</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>45698</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD11" si="2">AC3-AB3</f>
+        <v>48</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45706</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 X 12</v>
+      </c>
+      <c r="K4" s="1">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="18">
+        <v>45703</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>14 X 1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>40.26</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>45707</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18">
+        <v>45707</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 X 20</v>
+      </c>
+      <c r="K5" s="1">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="O5" s="18">
+        <v>45703</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>21 X 1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>45714</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="18">
+        <v>45707</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 X 6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" s="18">
+        <v>45714</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>21 X 1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>5</v>
+      </c>
+      <c r="V6" s="10">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>43.62</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>45718</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45709</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 X 11</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>11</v>
+      </c>
+      <c r="O7" s="18">
+        <v>45706</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8 X 2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>6</v>
+      </c>
+      <c r="V7" s="10">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>33.25</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>45713</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
+        <v>45706</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 X 8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>12</v>
+      </c>
+      <c r="O8" s="18">
+        <v>45705</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>20 X 2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>7</v>
+      </c>
+      <c r="V8" s="10">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>45714</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18">
+        <v>45714</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 X 20</v>
+      </c>
+      <c r="K9" s="1">
+        <v>42</v>
+      </c>
+      <c r="L9" s="1">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+      <c r="O9" s="18">
+        <v>45714</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>21 X 2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>8</v>
+      </c>
+      <c r="V9" s="10">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>14.41</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>45702</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="18">
+        <v>45709</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3 X 21</v>
+      </c>
+      <c r="K10" s="1">
+        <v>46</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="18">
+        <v>45715</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7 X 2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>9</v>
+      </c>
+      <c r="V10" s="10">
+        <v>2</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>13.65</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>45711</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="18">
+        <v>45700</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3 X 16</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="18">
+        <v>45705</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>14 X 3</v>
+      </c>
+      <c r="U11" s="1">
+        <v>10</v>
+      </c>
+      <c r="V11" s="10">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>45713</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18">
+        <v>45713</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3 X 18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
+      <c r="O12" s="18">
+        <v>45704</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11 X 4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>11</v>
+      </c>
+      <c r="V12" s="12">
+        <v>4</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>45703</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12:AD23" si="3">AC12-AB12</f>
+        <v>53</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18">
+        <v>45713</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3 X 9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>31</v>
+      </c>
+      <c r="L13" s="1">
+        <v>18</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="18">
+        <v>45701</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>18 X 4</v>
+      </c>
+      <c r="U13" s="13">
+        <v>12</v>
+      </c>
+      <c r="V13" s="11">
+        <v>3</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0.69907200000000003</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>45703</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14</v>
+      </c>
+      <c r="E14" s="18">
+        <v>45705</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 X 6</v>
+      </c>
+      <c r="K14" s="1">
+        <v>52</v>
+      </c>
+      <c r="L14" s="1">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>11</v>
+      </c>
+      <c r="O14" s="18">
+        <v>45716</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>18 X 5</v>
+      </c>
+      <c r="U14" s="13">
+        <v>13</v>
+      </c>
+      <c r="V14" s="11">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0.93934700000000004</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>45704</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="18">
+        <v>45705</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 X 14</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>12</v>
+      </c>
+      <c r="O15" s="18">
+        <v>45705</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1 X 6</v>
+      </c>
+      <c r="U15" s="1">
+        <v>14</v>
+      </c>
+      <c r="V15" s="12">
+        <v>4</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.86986699999999895</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>45711</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="18">
+        <v>45707</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 X 16</v>
+      </c>
+      <c r="K16" s="1">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>9</v>
+      </c>
+      <c r="O16" s="18">
+        <v>45707</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2 X 6</v>
+      </c>
+      <c r="U16" s="1">
+        <v>15</v>
+      </c>
+      <c r="V16" s="11">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>0.76795599999999897</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>45707</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" s="18">
+        <v>45704</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 X 6</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6</v>
+      </c>
+      <c r="N17" s="1">
+        <v>14</v>
+      </c>
+      <c r="O17" s="18">
+        <v>45705</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4 X 6</v>
+      </c>
+      <c r="U17" s="1">
+        <v>16</v>
+      </c>
+      <c r="V17" s="12">
+        <v>4</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.80542899999999895</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>45700</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="18">
+        <v>45715</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 X 21</v>
+      </c>
+      <c r="K18" s="1">
+        <v>33</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1">
+        <v>14</v>
+      </c>
+      <c r="O18" s="18">
+        <v>45704</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4 X 6</v>
+      </c>
+      <c r="U18" s="1">
+        <v>17</v>
+      </c>
+      <c r="V18" s="12">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.33881</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>45714</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+      <c r="E19" s="18">
+        <v>45715</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4 X 10</v>
+      </c>
+      <c r="K19" s="1">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1">
+        <v>11</v>
+      </c>
+      <c r="O19" s="18">
+        <v>45708</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>22 X 6</v>
+      </c>
+      <c r="U19" s="13">
+        <v>18</v>
+      </c>
+      <c r="V19" s="12">
+        <v>4</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.79100499999999896</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>45710</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18">
+        <v>45709</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5 X 21</v>
+      </c>
+      <c r="K20" s="1">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12</v>
+      </c>
+      <c r="O20" s="18">
+        <v>45716</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>15 X 6</v>
+      </c>
+      <c r="U20" s="1">
+        <v>19</v>
+      </c>
+      <c r="V20" s="11">
+        <v>3</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>0.86567899999999898</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC20" s="15">
+        <v>45699</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18">
+        <v>45709</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5 X 12</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1">
+        <v>16</v>
+      </c>
+      <c r="O21" s="18">
+        <v>45705</v>
+      </c>
+      <c r="P21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11 X 7</v>
+      </c>
+      <c r="U21" s="1">
+        <v>20</v>
+      </c>
+      <c r="V21" s="11">
+        <v>3</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>0.80262500000000003</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>45700</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="18">
+        <v>45703</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>6 X 11</v>
+      </c>
+      <c r="K22" s="1">
+        <v>8</v>
+      </c>
+      <c r="L22" s="1">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1">
+        <v>18</v>
+      </c>
+      <c r="O22" s="18">
+        <v>45706</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>22 X 7</v>
+      </c>
+      <c r="U22" s="1">
+        <v>21</v>
+      </c>
+      <c r="V22" s="12">
+        <v>4</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>45713</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9</v>
+      </c>
+      <c r="E23" s="18">
+        <v>45714</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>6 X 1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>15</v>
+      </c>
+      <c r="L23" s="1">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7</v>
+      </c>
+      <c r="N23" s="1">
+        <v>8</v>
+      </c>
+      <c r="O23" s="18">
+        <v>45708</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>22 X 7</v>
+      </c>
+      <c r="U23" s="1">
+        <v>22</v>
+      </c>
+      <c r="V23" s="12">
+        <v>4</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB23" s="17">
+        <v>45650</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>45702</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>13</v>
+      </c>
+      <c r="E24" s="18">
+        <v>45715</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7 X 21</v>
+      </c>
+      <c r="K24" s="1">
+        <v>24</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1">
+        <v>9</v>
+      </c>
+      <c r="O24" s="18">
+        <v>45706</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2 X 8</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="18">
+        <v>45715</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7 X 2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>9</v>
+      </c>
+      <c r="N25" s="1">
+        <v>11</v>
+      </c>
+      <c r="O25" s="18">
+        <v>45713</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3 X 9</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11</v>
+      </c>
+      <c r="E26" s="18">
+        <v>45706</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>8 X 2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <v>10</v>
+      </c>
+      <c r="O26" s="18">
+        <v>45705</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1 X 10</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+      <c r="E27" s="18">
+        <v>45700</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>9 X 1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>34</v>
+      </c>
+      <c r="L27" s="1">
+        <v>10</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="18">
+        <v>45706</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10 X 10</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18">
+        <v>45701</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10 X 11</v>
+      </c>
+      <c r="K28" s="1">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="18">
+        <v>45706</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2</v>
+      </c>
+      <c r="R28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10 X 10</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="18">
+        <v>45706</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10 X 10</v>
+      </c>
+      <c r="K29" s="1">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1">
+        <v>10</v>
+      </c>
+      <c r="N29" s="1">
+        <v>13</v>
+      </c>
+      <c r="O29" s="18">
+        <v>45706</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+      <c r="R29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>12 X 10</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="18">
+        <v>45706</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10 X 10</v>
+      </c>
+      <c r="K30" s="1">
+        <v>47</v>
+      </c>
+      <c r="L30" s="1">
+        <v>17</v>
+      </c>
+      <c r="M30" s="1">
+        <v>10</v>
+      </c>
+      <c r="N30" s="1">
+        <v>9</v>
+      </c>
+      <c r="O30" s="18">
+        <v>45715</v>
+      </c>
+      <c r="P30" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2</v>
+      </c>
+      <c r="R30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>17 X 10</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="18">
+        <v>45713</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10 X 16</v>
+      </c>
+      <c r="K31" s="1">
+        <v>49</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>10</v>
+      </c>
+      <c r="N31" s="1">
+        <v>12</v>
+      </c>
+      <c r="O31" s="18">
+        <v>45715</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2</v>
+      </c>
+      <c r="R31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4 X 10</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="18">
+        <v>45713</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10 X 11</v>
+      </c>
+      <c r="K32" s="1">
+        <v>51</v>
+      </c>
+      <c r="L32" s="1">
+        <v>15</v>
+      </c>
+      <c r="M32" s="1">
+        <v>10</v>
+      </c>
+      <c r="N32" s="1">
+        <v>10</v>
+      </c>
+      <c r="O32" s="18">
+        <v>45716</v>
+      </c>
+      <c r="P32" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2</v>
+      </c>
+      <c r="R32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>15 X 10</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16</v>
+      </c>
+      <c r="E33" s="18">
+        <v>45705</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>11 X 7</v>
+      </c>
+      <c r="K33" s="1">
+        <v>22</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>11</v>
+      </c>
+      <c r="N33" s="1">
+        <v>8</v>
+      </c>
+      <c r="O33" s="18">
+        <v>45709</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>4</v>
+      </c>
+      <c r="R33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2 X 11</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11</v>
+      </c>
+      <c r="E34" s="18">
+        <v>45704</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" ref="H34:H53" si="4">_xlfn.CONCAT(B34," X ",C34)</f>
+        <v>11 X 4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>29</v>
+      </c>
+      <c r="L34" s="1">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1">
+        <v>11</v>
+      </c>
+      <c r="N34" s="1">
+        <v>10</v>
+      </c>
+      <c r="O34" s="18">
+        <v>45703</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4</v>
+      </c>
+      <c r="R34" s="1" t="str">
+        <f t="shared" ref="R34:R53" si="5">_xlfn.CONCAT(L34," X ",M34)</f>
+        <v>6 X 11</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>13</v>
+      </c>
+      <c r="E35" s="18">
+        <v>45706</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>12 X 10</v>
+      </c>
+      <c r="K35" s="1">
+        <v>25</v>
+      </c>
+      <c r="L35" s="1">
+        <v>10</v>
+      </c>
+      <c r="M35" s="1">
+        <v>11</v>
+      </c>
+      <c r="N35" s="1">
+        <v>6</v>
+      </c>
+      <c r="O35" s="18">
+        <v>45701</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10 X 11</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="18">
+        <v>45708</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>13 X 11</v>
+      </c>
+      <c r="K36" s="1">
+        <v>38</v>
+      </c>
+      <c r="L36" s="1">
+        <v>10</v>
+      </c>
+      <c r="M36" s="1">
+        <v>11</v>
+      </c>
+      <c r="N36" s="1">
+        <v>10</v>
+      </c>
+      <c r="O36" s="18">
+        <v>45713</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>4</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10 X 11</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="18">
+        <v>45705</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>14 X 3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>18</v>
+      </c>
+      <c r="L37" s="1">
+        <v>13</v>
+      </c>
+      <c r="M37" s="1">
+        <v>11</v>
+      </c>
+      <c r="N37" s="1">
+        <v>9</v>
+      </c>
+      <c r="O37" s="18">
+        <v>45708</v>
+      </c>
+      <c r="P37" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>4</v>
+      </c>
+      <c r="R37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>13 X 11</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="18">
+        <v>45703</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>14 X 1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>9</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>12</v>
+      </c>
+      <c r="N38" s="1">
+        <v>9</v>
+      </c>
+      <c r="O38" s="18">
+        <v>45706</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>3</v>
+      </c>
+      <c r="R38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2 X 12</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="18">
+        <v>45713</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>14 X 20</v>
+      </c>
+      <c r="K39" s="1">
+        <v>20</v>
+      </c>
+      <c r="L39" s="1">
+        <v>5</v>
+      </c>
+      <c r="M39" s="1">
+        <v>12</v>
+      </c>
+      <c r="N39" s="1">
+        <v>8</v>
+      </c>
+      <c r="O39" s="18">
+        <v>45709</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>3</v>
+      </c>
+      <c r="R39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>5 X 12</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="18">
+        <v>45709</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>15 X 14</v>
+      </c>
+      <c r="K40" s="1">
+        <v>17</v>
+      </c>
+      <c r="L40" s="1">
+        <v>22</v>
+      </c>
+      <c r="M40" s="1">
+        <v>13</v>
+      </c>
+      <c r="N40" s="1">
+        <v>9</v>
+      </c>
+      <c r="O40" s="18">
+        <v>45708</v>
+      </c>
+      <c r="P40" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>3</v>
+      </c>
+      <c r="R40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>22 X 13</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>12</v>
+      </c>
+      <c r="E41" s="18">
+        <v>45716</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>15 X 6</v>
+      </c>
+      <c r="K41" s="1">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>14</v>
+      </c>
+      <c r="N41" s="1">
+        <v>8</v>
+      </c>
+      <c r="O41" s="18">
+        <v>45705</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>4</v>
+      </c>
+      <c r="R41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>4 X 14</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>10</v>
+      </c>
+      <c r="E42" s="18">
+        <v>45716</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>15 X 10</v>
+      </c>
+      <c r="K42" s="1">
+        <v>23</v>
+      </c>
+      <c r="L42" s="1">
+        <v>15</v>
+      </c>
+      <c r="M42" s="1">
+        <v>14</v>
+      </c>
+      <c r="N42" s="1">
+        <v>5</v>
+      </c>
+      <c r="O42" s="18">
+        <v>45709</v>
+      </c>
+      <c r="P42" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>4</v>
+      </c>
+      <c r="R42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>15 X 14</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9</v>
+      </c>
+      <c r="E43" s="18">
+        <v>45715</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>17 X 10</v>
+      </c>
+      <c r="K43" s="1">
+        <v>32</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>16</v>
+      </c>
+      <c r="N43" s="1">
+        <v>5</v>
+      </c>
+      <c r="O43" s="18">
+        <v>45700</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>4</v>
+      </c>
+      <c r="R43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>3 X 16</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>11</v>
+      </c>
+      <c r="E44" s="18">
+        <v>45701</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>18 X 4</v>
+      </c>
+      <c r="K44" s="1">
+        <v>14</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1">
+        <v>16</v>
+      </c>
+      <c r="N44" s="1">
+        <v>10</v>
+      </c>
+      <c r="O44" s="18">
+        <v>45707</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>4</v>
+      </c>
+      <c r="R44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>4 X 16</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11</v>
+      </c>
+      <c r="E45" s="18">
+        <v>45716</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>18 X 5</v>
+      </c>
+      <c r="K45" s="1">
+        <v>37</v>
+      </c>
+      <c r="L45" s="1">
+        <v>10</v>
+      </c>
+      <c r="M45" s="1">
+        <v>16</v>
+      </c>
+      <c r="N45" s="1">
+        <v>12</v>
+      </c>
+      <c r="O45" s="18">
+        <v>45713</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>4</v>
+      </c>
+      <c r="R45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10 X 16</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>12</v>
+      </c>
+      <c r="E46" s="18">
+        <v>45705</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>20 X 2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>36</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>18</v>
+      </c>
+      <c r="N46" s="1">
+        <v>8</v>
+      </c>
+      <c r="O46" s="18">
+        <v>45713</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>4</v>
+      </c>
+      <c r="R46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>3 X 18</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="18">
+        <v>45703</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>21 X 1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>12</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>20</v>
+      </c>
+      <c r="N47" s="1">
+        <v>8</v>
+      </c>
+      <c r="O47" s="18">
+        <v>45707</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>3</v>
+      </c>
+      <c r="R47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2 X 20</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>41</v>
+      </c>
+      <c r="B48" s="1">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6</v>
+      </c>
+      <c r="E48" s="18">
+        <v>45714</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>21 X 1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>43</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="1">
+        <v>20</v>
+      </c>
+      <c r="N48" s="1">
+        <v>9</v>
+      </c>
+      <c r="O48" s="18">
+        <v>45714</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>3</v>
+      </c>
+      <c r="R48" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2 X 20</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>42</v>
+      </c>
+      <c r="B49" s="1">
+        <v>21</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6</v>
+      </c>
+      <c r="E49" s="18">
+        <v>45714</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>21 X 2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>39</v>
+      </c>
+      <c r="L49" s="1">
+        <v>14</v>
+      </c>
+      <c r="M49" s="1">
+        <v>20</v>
+      </c>
+      <c r="N49" s="1">
+        <v>8</v>
+      </c>
+      <c r="O49" s="18">
+        <v>45713</v>
+      </c>
+      <c r="P49" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>3</v>
+      </c>
+      <c r="R49" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>14 X 20</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>18</v>
+      </c>
+      <c r="E50" s="18">
+        <v>45706</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>22 X 7</v>
+      </c>
+      <c r="K50" s="1">
+        <v>21</v>
+      </c>
+      <c r="L50" s="1">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1">
+        <v>21</v>
+      </c>
+      <c r="N50" s="1">
+        <v>7</v>
+      </c>
+      <c r="O50" s="18">
+        <v>45709</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>4</v>
+      </c>
+      <c r="R50" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>3 X 21</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>15</v>
+      </c>
+      <c r="B51" s="1">
+        <v>22</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8</v>
+      </c>
+      <c r="E51" s="18">
+        <v>45708</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>22 X 7</v>
+      </c>
+      <c r="K51" s="1">
+        <v>19</v>
+      </c>
+      <c r="L51" s="1">
+        <v>5</v>
+      </c>
+      <c r="M51" s="1">
+        <v>21</v>
+      </c>
+      <c r="N51" s="1">
+        <v>6</v>
+      </c>
+      <c r="O51" s="18">
+        <v>45709</v>
+      </c>
+      <c r="P51" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>4</v>
+      </c>
+      <c r="R51" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>5 X 21</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1">
+        <v>22</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>11</v>
+      </c>
+      <c r="E52" s="18">
+        <v>45708</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>22 X 6</v>
+      </c>
+      <c r="K52" s="1">
+        <v>45</v>
+      </c>
+      <c r="L52" s="1">
+        <v>7</v>
+      </c>
+      <c r="M52" s="1">
+        <v>21</v>
+      </c>
+      <c r="N52" s="1">
+        <v>13</v>
+      </c>
+      <c r="O52" s="18">
+        <v>45715</v>
+      </c>
+      <c r="P52" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>4</v>
+      </c>
+      <c r="R52" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>7 X 21</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1">
+        <v>22</v>
+      </c>
+      <c r="C53" s="1">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9</v>
+      </c>
+      <c r="E53" s="18">
+        <v>45708</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>22 X 13</v>
+      </c>
+      <c r="K53" s="1">
+        <v>48</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4</v>
+      </c>
+      <c r="M53" s="1">
+        <v>21</v>
+      </c>
+      <c r="N53" s="1">
+        <v>12</v>
+      </c>
+      <c r="O53" s="18">
+        <v>45715</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>4</v>
+      </c>
+      <c r="R53" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>4 X 21</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF54" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF55" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF57" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF58" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF59" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF60" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF65" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF67" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF68" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF69" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF70" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF71" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF72" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF73" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF74" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF75" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF76" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF77" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF78" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF79" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF80" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF81" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF82" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF83" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF84" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG84">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF85" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF86" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF87" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG87">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="32:33" x14ac:dyDescent="0.25">
+      <c r="AF88" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG88">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:R53">
+    <sortCondition ref="M2:M53"/>
+  </sortState>
+  <conditionalFormatting sqref="AD2:AD23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="62" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BF4B52-8B9E-42D4-AED7-CB1940B0B328}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331BA1CF-48C1-4C7C-B901-F41ABCF1AC74}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2509,7 +7796,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,12 +8073,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3965FDCC-9518-4F6F-972B-77F90C8FCCC3}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
